--- a/docs/template_csll.xlsx
+++ b/docs/template_csll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_projects\dev\superveniencia_csll\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B6C77-2D70-4D7E-AAD6-DBFC46E23649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A4918F-D2E5-4E41-8FE6-1CF706A3ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{284B33CC-1D1C-45F5-8082-6FFD49238665}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1235" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="57">
   <si>
     <t>Ano</t>
   </si>
@@ -378,7 +378,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="65">
     <dxf>
       <font>
         <b/>
@@ -420,138 +420,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -658,6 +526,14 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -684,60 +560,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -763,9 +586,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -778,54 +599,13 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border>
@@ -966,162 +746,20 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight3">
     <tableStyle name="PivotStyleLight3 2" table="0" count="11" xr9:uid="{D4C6F8C2-21AC-43C8-A44F-EFC1566C1FFB}">
-      <tableStyleElement type="wholeTable" dxfId="110"/>
-      <tableStyleElement type="headerRow" dxfId="109"/>
-      <tableStyleElement type="totalRow" dxfId="108"/>
-      <tableStyleElement type="firstRowStripe" dxfId="107"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="106"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="105"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="104"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="103"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="102"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="101"/>
-      <tableStyleElement type="pageFieldValues" dxfId="100"/>
+      <tableStyleElement type="wholeTable" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="totalRow" dxfId="62"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="60"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="59"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="58"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="57"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="56"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="55"/>
+      <tableStyleElement type="pageFieldValues" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9710,892 +9348,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A27AAB2C-A37C-4D78-8BC0-9781BC059C37}" name="PivotTable21" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B314:M316" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item h="1" x="10"/>
-        <item h="1" x="8"/>
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item x="11"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="5"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="5" numFmtId="43"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="75">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="74">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="73">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="42">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCCE0F1C-DB7E-4097-91EE-6CEC1DBBD817}" name="PivotTable8" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B114:M117" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="2" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DD79EEC-BC91-46BB-B3AC-A19E947AC627}" name="PivotTable5" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B82:M84" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="0" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="129">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="131">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9880B853-8AB8-4A4F-AE2D-5AFBDF03617D}" name="PivotTable13" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B270:D272" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="127">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8593AC4E-B6FD-4FDD-812A-736707F1F5F7}" name="PivotTable6" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B87:M90" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="1" baseItem="19" numFmtId="43"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E4F28BB-603F-45D2-86E1-CA71F38B3967}" name="PivotTable12" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B251:M254" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="2" baseItem="3" numFmtId="43"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BAA3150-16F3-430D-8468-864E05A2F7D6}" name="PivotTable4" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BAA3150-16F3-430D-8468-864E05A2F7D6}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B20:M41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -10798,8 +9551,1087 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2293AFA-67CC-4D49-807A-8AE400C85707}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B238:M240" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item h="1" x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A27AAB2C-A37C-4D78-8BC0-9781BC059C37}" name="PivotTable21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B314:M316" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="5" numFmtId="43"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="38">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCCE0F1C-DB7E-4097-91EE-6CEC1DBBD817}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B114:M117" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="2" baseItem="0" numFmtId="43"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8593AC4E-B6FD-4FDD-812A-736707F1F5F7}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B87:M90" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="1" baseItem="19" numFmtId="43"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3A3FDB7-7E76-4332-9464-121C68FE3F16}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total Geral" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B9:M11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item m="1" x="14"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item m="1" x="13"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{295CA191-B576-42F0-B6CB-AB26C1B7B963}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B108:M110" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D92BBDF3-86B3-4630-BA5D-8E4B12DF8619}" name="PivotTable11" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F3F7F63-09E5-433D-9BFE-F40EDFC08F4D}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B141:M143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item h="1" x="10"/>
+        <item x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item h="1" x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="47">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D92BBDF3-86B3-4630-BA5D-8E4B12DF8619}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B246:M248" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -10820,24 +10652,24 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="17">
         <item m="1" x="15"/>
         <item x="4"/>
-        <item x="12"/>
+        <item h="1" x="12"/>
         <item m="1" x="13"/>
         <item m="1" x="14"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10909,16 +10741,16 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="125">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10927,7 +10759,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="48">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10949,8 +10781,460 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E193453-EA67-48A9-8342-81AFE67F49F6}" name="PivotTable10" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E4F28BB-603F-45D2-86E1-CA71F38B3967}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B251:M254" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="2" baseItem="3" numFmtId="43"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EB8C729-20E4-41E8-9E42-A4435106DD30}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B299:M301" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item x="10"/>
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item h="1" x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02769CB7-F854-445D-8D83-265823CD9293}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B76:M78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E193453-EA67-48A9-8342-81AFE67F49F6}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B160:M181" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -10989,9 +11273,9 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item h="1" x="19"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11153,622 +11437,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EB8C729-20E4-41E8-9E42-A4435106DD30}" name="PivotTable19" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B299:M301" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item x="10"/>
-        <item h="1" x="8"/>
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item h="1" x="11"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="112">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="46">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F3F7F63-09E5-433D-9BFE-F40EDFC08F4D}" name="PivotTable18" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B141:M143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item h="1" x="10"/>
-        <item x="8"/>
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item h="1" x="11"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="121">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="61">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2293AFA-67CC-4D49-807A-8AE400C85707}" name="PivotTable17" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B238:M240" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item h="1" x="10"/>
-        <item h="1" x="8"/>
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item h="1" x="11"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="120">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="116">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02769CB7-F854-445D-8D83-265823CD9293}" name="PivotTable15" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B76:M78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="124">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="55">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{762768C0-31CC-4B0D-BE8D-75A75D63B7C8}" name="PivotTable9" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B152:M154" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DD79EEC-BC91-46BB-B3AC-A19E947AC627}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B82:M84" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
       <items count="12">
@@ -11795,10 +11466,10 @@
         <item h="1" x="12"/>
         <item m="1" x="13"/>
         <item m="1" x="14"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
         <item h="1" x="7"/>
@@ -11835,7 +11506,7 @@
   </rowFields>
   <rowItems count="1">
     <i>
-      <x v="4"/>
+      <x/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -11880,29 +11551,23 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="4" numFmtId="43"/>
+    <dataField name="Sum of Movimentacao" fld="7" baseField="0" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="136">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
-            <x v="4"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -11918,309 +11583,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3A3FDB7-7E76-4332-9464-121C68FE3F16}" name="PivotTable3" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total Geral" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B9:M11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item m="1" x="14"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item m="1" x="13"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="134">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="135">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="52">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{295CA191-B576-42F0-B6CB-AB26C1B7B963}" name="PivotTable7" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B108:M110" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="132">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="133">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F902641-16D6-4B87-8B06-ABEF29C750DB}" name="PivotTable14" cacheId="1235" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F902641-16D6-4B87-8B06-ABEF29C750DB}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B275:D278" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -12342,6 +11705,281 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{762768C0-31CC-4B0D-BE8D-75A75D63B7C8}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B152:M154" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="4" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9880B853-8AB8-4A4F-AE2D-5AFBDF03617D}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B270:D272" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6188AB5-3435-4A31-B2C4-00D5078AC79A}" name="Table1" displayName="Table1" ref="A1:H847" totalsRowShown="0">
   <autoFilter ref="A1:H847" xr:uid="{B6188AB5-3435-4A31-B2C4-00D5078AC79A}"/>
@@ -12349,10 +11987,10 @@
     <tableColumn id="1" xr3:uid="{4352CCD2-E1AE-4F7F-83B1-8BDFF3316472}" name="Ano"/>
     <tableColumn id="2" xr3:uid="{91F1E4F1-AD20-43A9-8D1A-3B7BFD50CA97}" name="Conta_Nome"/>
     <tableColumn id="3" xr3:uid="{9FFF1985-B721-44A0-8B14-346B01ED5700}" name="Cosif_Nome"/>
-    <tableColumn id="4" xr3:uid="{311A7484-C75A-472D-89C7-CB9BB8F63958}" name="Tributo" dataDxfId="140" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{68D6235F-94FF-480C-85F5-6B337BCCE1E3}" name="Descrição" dataDxfId="139" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{311A7484-C75A-472D-89C7-CB9BB8F63958}" name="Tributo" dataDxfId="53" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{68D6235F-94FF-480C-85F5-6B337BCCE1E3}" name="Descrição" dataDxfId="52" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{59363A9F-5B0B-46BE-9B58-172FB506062D}" name="ValorDebito"/>
-    <tableColumn id="7" xr3:uid="{7B2C1D67-F616-4CA1-8207-7DD605A91F7D}" name="ValorCredito" dataDxfId="138"/>
+    <tableColumn id="7" xr3:uid="{7B2C1D67-F616-4CA1-8207-7DD605A91F7D}" name="ValorCredito" dataDxfId="51"/>
     <tableColumn id="8" xr3:uid="{493C8851-65FC-4F0B-B9D5-DD20920D9B2A}" name="Movimentacao"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -34121,8 +33759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72FB3FD-D0E7-492E-9DB5-519453722DB1}">
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A277" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34132,7 +33770,7 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
@@ -34143,8 +33781,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -34272,14 +33909,8 @@
       <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C21">
         <v>2008</v>
       </c>
@@ -35094,7 +34725,7 @@
         <v>1049769</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -35109,7 +34740,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -35124,7 +34755,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -35139,7 +34770,7 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -35154,111 +34785,111 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
     </row>
@@ -35625,59 +35256,59 @@
         <v>-4288156.2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="6"/>
     </row>
@@ -35924,75 +35555,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
     </row>
-    <row r="126" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
     </row>
-    <row r="130" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
     </row>
-    <row r="132" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
     </row>
-    <row r="134" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
     </row>
@@ -36000,11 +35631,11 @@
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
     </row>
-    <row r="138" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
     </row>
@@ -36115,7 +35746,7 @@
         <v>183025.47</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -36131,7 +35762,7 @@
       <c r="M144"/>
       <c r="N144"/>
     </row>
-    <row r="145" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -36142,13 +35773,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25"/>
@@ -36199,37 +35829,37 @@
         <v>49</v>
       </c>
       <c r="C154" s="21">
-        <v>36923.07</v>
+        <v>5673.07</v>
       </c>
       <c r="D154" s="21">
-        <v>463101.01999999897</v>
+        <v>88101.019999998971</v>
       </c>
       <c r="E154" s="21">
-        <v>406566.61</v>
+        <v>62816.609999999928</v>
       </c>
       <c r="F154" s="21">
-        <v>382698.23</v>
+        <v>82698.229999999981</v>
       </c>
       <c r="G154" s="21">
-        <v>-55594.63</v>
+        <v>-1056164.4100000001</v>
       </c>
       <c r="H154" s="21">
-        <v>1905.33</v>
+        <v>-855725.91</v>
       </c>
       <c r="I154" s="21">
-        <v>1407.97</v>
+        <v>-856223.26999999979</v>
       </c>
       <c r="J154" s="21">
-        <v>1444.7599999999989</v>
+        <v>-856186.4800000001</v>
       </c>
       <c r="K154" s="21">
-        <v>1507.0100000000011</v>
+        <v>-784654.96</v>
       </c>
       <c r="L154" s="21">
-        <v>-6933.8999999999069</v>
+        <v>64535.370000000112</v>
       </c>
       <c r="M154" s="21">
-        <v>1233025.4699999993</v>
+        <v>-4105130.7300000009</v>
       </c>
     </row>
     <row r="155" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -37091,215 +36721,215 @@
         <v>1049769</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185"/>
     </row>
-    <row r="186" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
     </row>
-    <row r="194" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
     </row>
-    <row r="196" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197"/>
     </row>
-    <row r="198" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199"/>
     </row>
-    <row r="200" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201"/>
     </row>
-    <row r="202" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207"/>
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
     </row>
-    <row r="218" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221"/>
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223"/>
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225"/>
     </row>
-    <row r="226" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227"/>
     </row>
-    <row r="228" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229"/>
     </row>
-    <row r="230" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231"/>
     </row>
-    <row r="232" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233"/>
     </row>
-    <row r="234" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234"/>
       <c r="B234"/>
     </row>
@@ -37667,51 +37297,51 @@
         <v>-4288156.2</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255"/>
       <c r="B255"/>
     </row>
-    <row r="256" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257"/>
       <c r="B257"/>
     </row>
-    <row r="258" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259"/>
       <c r="B259"/>
     </row>
-    <row r="260" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261"/>
       <c r="B261"/>
     </row>
-    <row r="262" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263"/>
       <c r="B263"/>
     </row>
-    <row r="264" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265"/>
       <c r="B265"/>
     </row>
-    <row r="266" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266"/>
       <c r="B266"/>
     </row>
@@ -37829,67 +37459,67 @@
       <c r="L278"/>
       <c r="M278"/>
     </row>
-    <row r="279" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279"/>
       <c r="B279"/>
     </row>
-    <row r="280" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281"/>
       <c r="B281"/>
     </row>
-    <row r="282" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283"/>
       <c r="B283"/>
     </row>
-    <row r="284" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285"/>
       <c r="B285"/>
     </row>
-    <row r="286" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287"/>
       <c r="B287"/>
     </row>
-    <row r="288" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289"/>
       <c r="B289"/>
     </row>
-    <row r="290" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291"/>
       <c r="B291"/>
     </row>
-    <row r="292" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293"/>
       <c r="B293"/>
     </row>
-    <row r="294" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294"/>
       <c r="B294"/>
     </row>
@@ -38025,7 +37655,7 @@
       <c r="M302"/>
       <c r="N302"/>
     </row>
-    <row r="303" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
@@ -38041,7 +37671,7 @@
       <c r="M303"/>
       <c r="N303"/>
     </row>
-    <row r="304" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -38057,7 +37687,7 @@
       <c r="M304"/>
       <c r="N304"/>
     </row>
-    <row r="305" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
@@ -38073,7 +37703,7 @@
       <c r="M305"/>
       <c r="N305"/>
     </row>
-    <row r="306" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
@@ -38089,7 +37719,7 @@
       <c r="M306"/>
       <c r="N306"/>
     </row>
-    <row r="307" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -38105,7 +37735,7 @@
       <c r="M307"/>
       <c r="N307"/>
     </row>
-    <row r="308" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
@@ -38121,7 +37751,7 @@
       <c r="M308"/>
       <c r="N308"/>
     </row>
-    <row r="309" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
@@ -38137,7 +37767,7 @@
       <c r="M309"/>
       <c r="N309"/>
     </row>
-    <row r="310" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
@@ -38153,7 +37783,7 @@
       <c r="M310"/>
       <c r="N310"/>
     </row>
-    <row r="311" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
@@ -38271,7 +37901,7 @@
       </c>
       <c r="N316"/>
     </row>
-    <row r="317" spans="1:14" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>

--- a/docs/template_csll.xlsx
+++ b/docs/template_csll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_projects\dev\superveniencia_csll\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A4918F-D2E5-4E41-8FE6-1CF706A3ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C074AE5E-FA51-4233-9CB9-ECB6F812295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{284B33CC-1D1C-45F5-8082-6FFD49238665}"/>
   </bookViews>
@@ -378,7 +378,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="88">
     <dxf>
       <font>
         <b/>
@@ -391,6 +391,105 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -534,9 +633,6 @@
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
@@ -545,6 +641,9 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -749,17 +848,17 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight3">
     <tableStyle name="PivotStyleLight3 2" table="0" count="11" xr9:uid="{D4C6F8C2-21AC-43C8-A44F-EFC1566C1FFB}">
-      <tableStyleElement type="wholeTable" dxfId="64"/>
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="totalRow" dxfId="62"/>
-      <tableStyleElement type="firstRowStripe" dxfId="61"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="60"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="59"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="58"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="57"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="56"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="55"/>
-      <tableStyleElement type="pageFieldValues" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="87"/>
+      <tableStyleElement type="headerRow" dxfId="86"/>
+      <tableStyleElement type="totalRow" dxfId="85"/>
+      <tableStyleElement type="firstRowStripe" dxfId="84"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="83"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="82"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="81"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="80"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="79"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="78"/>
+      <tableStyleElement type="pageFieldValues" dxfId="77"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -9348,10 +9447,648 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F902641-16D6-4B87-8B06-ABEF29C750DB}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B275:D278" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="1" baseItem="13" numFmtId="43"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E193453-EA67-48A9-8342-81AFE67F49F6}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B160:M181" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="1" baseItem="10" numFmtId="43"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A27AAB2C-A37C-4D78-8BC0-9781BC059C37}" name="PivotTable21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B314:M316" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="5"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="5" numFmtId="43"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="64">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DD79EEC-BC91-46BB-B3AC-A19E947AC627}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B82:M84" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="0" baseItem="0" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="67">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BAA3150-16F3-430D-8468-864E05A2F7D6}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B20:M41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -9551,11 +10288,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2293AFA-67CC-4D49-807A-8AE400C85707}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B238:M240" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F3F7F63-09E5-433D-9BFE-F40EDFC08F4D}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B141:M143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -9576,7 +10313,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="17">
         <item h="1" x="10"/>
-        <item h="1" x="8"/>
+        <item x="8"/>
         <item m="1" x="15"/>
         <item h="1" x="4"/>
         <item h="1" x="12"/>
@@ -9589,7 +10326,7 @@
         <item h="1" x="2"/>
         <item h="1" x="0"/>
         <item h="1" x="5"/>
-        <item x="9"/>
+        <item h="1" x="9"/>
         <item h="1" x="7"/>
         <item t="default"/>
       </items>
@@ -9620,7 +10357,7 @@
   </rowFields>
   <rowItems count="1">
     <i>
-      <x v="7"/>
+      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -9665,31 +10402,22 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="34">
+  <formats count="3">
+    <format dxfId="70">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
-            <x v="8"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
+    <format dxfId="68">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9711,11 +10439,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A27AAB2C-A37C-4D78-8BC0-9781BC059C37}" name="PivotTable21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B314:M316" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E4F28BB-603F-45D2-86E1-CA71F38B3967}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B251:M254" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -9731,56 +10459,78 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="17">
-        <item h="1" x="10"/>
-        <item h="1" x="8"/>
         <item m="1" x="15"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
         <item m="1" x="13"/>
-        <item x="11"/>
         <item m="1" x="14"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
+        <item h="1" x="3"/>
         <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
         <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="1">
+  <rowItems count="2">
     <i>
-      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -9817,55 +10567,17 @@
     <i>
       <x v="9"/>
     </i>
-    <i>
-      <x v="10"/>
+    <i t="grand">
+      <x/>
     </i>
   </colItems>
   <pageFields count="1">
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="5" numFmtId="43"/>
+    <dataField name="Sum of Movimentacao" fld="7" baseField="2" baseItem="3" numFmtId="43"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="38">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -9877,11 +10589,162 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D92BBDF3-86B3-4630-BA5D-8E4B12DF8619}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B246:M248" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="0" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="73">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCCE0F1C-DB7E-4097-91EE-6CEC1DBBD817}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B114:M117" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -10027,11 +10890,162 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EB8C729-20E4-41E8-9E42-A4435106DD30}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B299:M301" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item x="10"/>
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item h="1" x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8593AC4E-B6FD-4FDD-812A-736707F1F5F7}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B87:M90" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -10177,11 +11191,162 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{762768C0-31CC-4B0D-BE8D-75A75D63B7C8}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B152:M154" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="4" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3A3FDB7-7E76-4332-9464-121C68FE3F16}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total Geral" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B9:M11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -10294,10 +11459,10 @@
     <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="41">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10306,7 +11471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="45">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10328,11 +11493,446 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9880B853-8AB8-4A4F-AE2D-5AFBDF03617D}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B270:D272" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="50">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02769CB7-F854-445D-8D83-265823CD9293}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B76:M78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="53">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2293AFA-67CC-4D49-807A-8AE400C85707}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B238:M240" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item h="1" x="10"/>
+        <item h="1" x="8"/>
+        <item m="1" x="15"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
+        <item m="1" x="13"/>
+        <item h="1" x="11"/>
+        <item m="1" x="14"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="9"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="7"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{295CA191-B576-42F0-B6CB-AB26C1B7B963}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B108:M110" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="12">
         <item x="0"/>
         <item x="1"/>
@@ -10445,10 +12045,10 @@
     <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="44">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10457,1508 +12057,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F3F7F63-09E5-433D-9BFE-F40EDFC08F4D}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B141:M143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item h="1" x="10"/>
-        <item x="8"/>
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item h="1" x="11"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="2" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="47">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="45">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D92BBDF3-86B3-4630-BA5D-8E4B12DF8619}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B246:M248" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="48">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E4F28BB-603F-45D2-86E1-CA71F38B3967}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B251:M254" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="2" baseItem="3" numFmtId="43"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EB8C729-20E4-41E8-9E42-A4435106DD30}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B299:M301" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item x="10"/>
-        <item h="1" x="8"/>
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item h="1" x="11"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02769CB7-F854-445D-8D83-265823CD9293}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B76:M78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="7"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="7" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="21">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="19">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3 2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E193453-EA67-48A9-8342-81AFE67F49F6}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B160:M181" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="1" baseItem="10" numFmtId="43"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DD79EEC-BC91-46BB-B3AC-A19E947AC627}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B82:M84" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="0" baseItem="0" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F902641-16D6-4B87-8B06-ABEF29C750DB}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B275:D278" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="1" baseItem="13" numFmtId="43"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{762768C0-31CC-4B0D-BE8D-75A75D63B7C8}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B152:M154" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item h="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="4" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight3" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9880B853-8AB8-4A4F-AE2D-5AFBDF03617D}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B270:D272" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="17">
-        <item m="1" x="15"/>
-        <item h="1" x="4"/>
-        <item x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Movimentacao" fld="7" baseField="4" baseItem="1" numFmtId="43"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="30">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
+    <format dxfId="58">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11987,10 +12086,10 @@
     <tableColumn id="1" xr3:uid="{4352CCD2-E1AE-4F7F-83B1-8BDFF3316472}" name="Ano"/>
     <tableColumn id="2" xr3:uid="{91F1E4F1-AD20-43A9-8D1A-3B7BFD50CA97}" name="Conta_Nome"/>
     <tableColumn id="3" xr3:uid="{9FFF1985-B721-44A0-8B14-346B01ED5700}" name="Cosif_Nome"/>
-    <tableColumn id="4" xr3:uid="{311A7484-C75A-472D-89C7-CB9BB8F63958}" name="Tributo" dataDxfId="53" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{68D6235F-94FF-480C-85F5-6B337BCCE1E3}" name="Descrição" dataDxfId="52" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{311A7484-C75A-472D-89C7-CB9BB8F63958}" name="Tributo" dataDxfId="76" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{68D6235F-94FF-480C-85F5-6B337BCCE1E3}" name="Descrição" dataDxfId="75" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{59363A9F-5B0B-46BE-9B58-172FB506062D}" name="ValorDebito"/>
-    <tableColumn id="7" xr3:uid="{7B2C1D67-F616-4CA1-8207-7DD605A91F7D}" name="ValorCredito" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{7B2C1D67-F616-4CA1-8207-7DD605A91F7D}" name="ValorCredito" dataDxfId="74"/>
     <tableColumn id="8" xr3:uid="{493C8851-65FC-4F0B-B9D5-DD20920D9B2A}" name="Movimentacao"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -33759,8 +33858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72FB3FD-D0E7-492E-9DB5-519453722DB1}">
   <dimension ref="A1:N333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A277" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
